--- a/data/trans_camb/P1414-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1414-Edad-trans_camb.xlsx
@@ -659,16 +659,16 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>1.456221206749873</v>
+        <v>1.213073391875306</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.420054165128938</v>
+        <v>3.388900566679612</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5886347196784572</v>
+        <v>0.4709594906734254</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.734608376044152</v>
+        <v>1.356651260299147</v>
       </c>
     </row>
     <row r="7">
@@ -767,22 +767,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1613914735388814</v>
+        <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.319075479766758</v>
+        <v>-1.255054411255984</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.408652833324902</v>
+        <v>-1.378233767556736</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.3583518246177997</v>
+        <v>-0.339124280728439</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.4818210823117329</v>
+        <v>-0.5380136331092452</v>
       </c>
     </row>
     <row r="12">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.364290291531453</v>
+        <v>1.498385037440645</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.300961784407642</v>
+        <v>1.61713415154149</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6970212150104196</v>
+        <v>0.6178105229157204</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.365224446019242</v>
+        <v>0.4427710690108494</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7012610653451745</v>
+        <v>0.7192539789409502</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5128513561571619</v>
+        <v>0.5019475547205585</v>
       </c>
     </row>
     <row r="13">
@@ -850,12 +850,16 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
-      <c r="E14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
-        <v>-0.7185311478818763</v>
-      </c>
-      <c r="H14" s="6" t="inlineStr"/>
+        <v>-0.6984197562645371</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -866,12 +870,16 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
-      <c r="E15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="n">
+        <v>3.52718867522788</v>
+      </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>6.219372152736816</v>
-      </c>
-      <c r="H15" s="6" t="inlineStr"/>
+        <v>5.568655990310337</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>4.538466741624592</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -894,13 +902,13 @@
         <v>-0.9083865878115183</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.215238392975832</v>
+        <v>-0.2152383929758313</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.4787132414636485</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.1282335384305291</v>
+        <v>-0.128233538430529</v>
       </c>
     </row>
     <row r="17">
@@ -913,16 +921,16 @@
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>-2.321569342750151</v>
+        <v>-2.338571892215134</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.761532545449878</v>
+        <v>-1.652223219498804</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.226662777387002</v>
+        <v>-1.163389830564097</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.9674954942837148</v>
+        <v>-0.8876084586911726</v>
       </c>
     </row>
     <row r="18">
@@ -935,16 +943,16 @@
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.5221138870435632</v>
+        <v>0.3440537112206099</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.118087403001281</v>
+        <v>1.214786638448584</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1764341081353561</v>
+        <v>0.188658455094058</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5782451184383328</v>
+        <v>0.5852531450457116</v>
       </c>
     </row>
     <row r="19">
@@ -960,13 +968,13 @@
         <v>-0.4300873226205379</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.101907387671966</v>
+        <v>-0.1019073876719657</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.4444542248457021</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.119056531104311</v>
+        <v>-0.1190565311043108</v>
       </c>
     </row>
     <row r="20">
@@ -979,16 +987,16 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.7945293111913532</v>
+        <v>-0.7844089244699596</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5788971960198999</v>
+        <v>-0.5822469550831096</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7875172752835893</v>
+        <v>-0.7955793029595475</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6229212769664897</v>
+        <v>-0.5800686242563882</v>
       </c>
     </row>
     <row r="21">
@@ -1001,16 +1009,16 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>0.5028950714863621</v>
+        <v>0.4879164613260297</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8679434959366051</v>
+        <v>0.9169118882770643</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4773947851858065</v>
+        <v>0.4612859888807137</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8199670820376648</v>
+        <v>1.009803796172812</v>
       </c>
     </row>
     <row r="22">
@@ -1034,7 +1042,7 @@
         <v>1.69962610931512</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.03785467107436588</v>
+        <v>-0.03785467107436449</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>1.011320591766227</v>
@@ -1051,22 +1059,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3396735986635471</v>
+        <v>-0.4937616090115489</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3265753421229882</v>
+        <v>-0.3310604619356419</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.036753315180332</v>
+        <v>-0.8405394560632398</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.309009648821059</v>
+        <v>-2.155382712786734</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.2433913765607619</v>
+        <v>-0.3313853736633511</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.9952728214782344</v>
+        <v>-0.9889524862899969</v>
       </c>
     </row>
     <row r="24">
@@ -1077,22 +1085,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.177603567843568</v>
+        <v>1.104480756034587</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.560845854510863</v>
+        <v>1.550808624683184</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.226061231926534</v>
+        <v>4.411363286859104</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.846163420001181</v>
+        <v>1.884556436197101</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.328879272057557</v>
+        <v>2.332367118039789</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.229016772476604</v>
+        <v>1.256424263263299</v>
       </c>
     </row>
     <row r="25">
@@ -1112,7 +1120,7 @@
         <v>0.4226567603631617</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.009413560166683795</v>
+        <v>-0.00941356016668345</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4653249403933661</v>
@@ -1131,16 +1139,16 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>-0.2101482104836618</v>
+        <v>-0.1713510250334704</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4046978270816543</v>
+        <v>-0.4030314438711829</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1053938866615532</v>
+        <v>-0.1276537279108671</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3526063876367913</v>
+        <v>-0.3346254801588499</v>
       </c>
     </row>
     <row r="27">
@@ -1153,16 +1161,16 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>1.498251514976499</v>
+        <v>1.587914083753981</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6737130304021399</v>
+        <v>0.6855513128083297</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.459201563841906</v>
+        <v>1.528216015176978</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7967598612127409</v>
+        <v>0.8707021455034609</v>
       </c>
     </row>
     <row r="28">
@@ -1180,7 +1188,7 @@
         <v>0.3928578202928382</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.2162816931651358</v>
+        <v>0.216281693165136</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>2.398027125355669</v>
@@ -1203,22 +1211,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.6830834953824946</v>
+        <v>-0.5647767892521146</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.9638998297899678</v>
+        <v>-0.8533632844128151</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.031112169650612</v>
+        <v>-1.040446270990789</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.025212153850787</v>
+        <v>-1.110059658092864</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6353064812497994</v>
+        <v>-0.3279236315600189</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.580261168825437</v>
+        <v>-0.6406501216324788</v>
       </c>
     </row>
     <row r="30">
@@ -1229,22 +1237,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.54786054954164</v>
+        <v>1.574977145657654</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.028326024037302</v>
+        <v>1.038407553861681</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.701090408872657</v>
+        <v>5.507499852574012</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.801358608579103</v>
+        <v>4.769971296653446</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.226427284522778</v>
+        <v>3.332633989414361</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.455965557578189</v>
+        <v>2.673289661774601</v>
       </c>
     </row>
     <row r="31">
@@ -1258,7 +1266,7 @@
         <v>0.7819344515630571</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.4304817121933538</v>
+        <v>0.4304817121933541</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.3744632674337277</v>
@@ -1280,23 +1288,19 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C32" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D32" s="6" t="n">
-        <v>-0.8951013793819471</v>
-      </c>
+      <c r="C32" s="6" t="inlineStr"/>
+      <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="n">
-        <v>-0.1358737551793471</v>
+        <v>-0.1510768858277264</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1232415480050788</v>
+        <v>-0.1424993290050235</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1455565755452918</v>
+        <v>-0.09747737909948082</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1282183819200605</v>
+        <v>-0.1440858340869461</v>
       </c>
     </row>
     <row r="33">
@@ -1309,16 +1313,16 @@
       <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="n">
-        <v>1.293137935924104</v>
+        <v>1.190191111342369</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.032597065005004</v>
+        <v>1.028472128054705</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.250489415139412</v>
+        <v>1.199714311614759</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.005087572840116</v>
+        <v>1.092842902392014</v>
       </c>
     </row>
     <row r="34">
@@ -1336,7 +1340,7 @@
         <v>0.09280426903916983</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0.05935781153823616</v>
+        <v>0.05935781153823625</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>2.459707921147631</v>
@@ -1359,22 +1363,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.236261078201017</v>
+        <v>-1.084695350803172</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.24966169758707</v>
+        <v>-1.44510808971664</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.4907904793161399</v>
+        <v>-0.6341930957205039</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.212088065992274</v>
+        <v>3.22790626905931</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.5130909069027919</v>
+        <v>-0.3599548455717779</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.368740041931184</v>
+        <v>1.316497595139319</v>
       </c>
     </row>
     <row r="36">
@@ -1385,22 +1389,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.865267839921498</v>
+        <v>1.844614635327193</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.026768789894703</v>
+        <v>0.9761212918116473</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.490329633631465</v>
+        <v>5.250918371591301</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.522511931516414</v>
+        <v>8.335238835891234</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.934984527768351</v>
+        <v>3.104156745898722</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.383590782929589</v>
+        <v>4.524233228486004</v>
       </c>
     </row>
     <row r="37">
@@ -1414,7 +1418,7 @@
         <v>0.1325433188110005</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.08477499386709354</v>
+        <v>0.08477499386709367</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.7984277524063519</v>
@@ -1439,16 +1443,16 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.1552467959665642</v>
+        <v>-0.1777464474700263</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.6369590551571677</v>
+        <v>0.6066168734436453</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1931495185890087</v>
+        <v>-0.1728914629583841</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4345737593646049</v>
+        <v>0.3680995489347184</v>
       </c>
     </row>
     <row r="39">
@@ -1461,16 +1465,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>2.876890672790428</v>
+        <v>2.722768013207787</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>4.869405676845872</v>
+        <v>4.588552007464535</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.145872022489405</v>
+        <v>2.498678274250262</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.489044071492305</v>
+        <v>3.573865378264558</v>
       </c>
     </row>
     <row r="40">
@@ -1511,22 +1515,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.074914442955624</v>
+        <v>-1.962130529437773</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.774610159390406</v>
+        <v>-1.715840143191283</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.833743593848108</v>
+        <v>-1.806149200161911</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.08793885703951076</v>
+        <v>-0.09517602205548074</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.253619239508615</v>
+        <v>-1.274615380354215</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.1658746288643562</v>
+        <v>-0.4348553856910837</v>
       </c>
     </row>
     <row r="42">
@@ -1540,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.2519328035172813</v>
+        <v>0.3353043984571723</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.864062014504583</v>
+        <v>2.865004976221116</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.383273389354812</v>
+        <v>4.170492322901857</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.679023223002035</v>
+        <v>1.642094773071566</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.424128227778952</v>
+        <v>2.322835644815261</v>
       </c>
     </row>
     <row r="43">
@@ -1572,7 +1576,7 @@
         <v>0.2421606509162715</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>0.9103319289395908</v>
+        <v>0.9103319289395905</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1116123933397167</v>
@@ -1591,16 +1595,16 @@
       <c r="C44" s="6" t="inlineStr"/>
       <c r="D44" s="6" t="inlineStr"/>
       <c r="E44" s="6" t="n">
-        <v>-0.5907154627401771</v>
+        <v>-0.5715508764112625</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.03817069582645046</v>
+        <v>-0.1043266051599033</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6270952183453589</v>
+        <v>-0.6098160292759786</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1049406274785404</v>
+        <v>-0.1889708793329682</v>
       </c>
     </row>
     <row r="45">
@@ -1613,16 +1617,16 @@
       <c r="C45" s="6" t="inlineStr"/>
       <c r="D45" s="6" t="inlineStr"/>
       <c r="E45" s="6" t="n">
-        <v>2.578465611669746</v>
+        <v>2.267636210300743</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>4.018817264402203</v>
+        <v>3.520874695006108</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.992477379858088</v>
+        <v>1.735012839482181</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>3.192930811856147</v>
+        <v>2.671241901733108</v>
       </c>
     </row>
     <row r="46">
@@ -1640,19 +1644,19 @@
         <v>0.1983820500958198</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0.2034222385530498</v>
+        <v>0.2034222385530499</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>0.9176881319671929</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1.55850600913803</v>
+        <v>1.558506009138031</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>0.569894008089376</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.9085793287679926</v>
+        <v>0.9085793287679923</v>
       </c>
     </row>
     <row r="47">
@@ -1663,22 +1667,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.05834954668352518</v>
+        <v>-0.05138945114293429</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.04391672545244316</v>
+        <v>-0.05657902794569823</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.1082921180954096</v>
+        <v>0.1318758936140027</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.8368595243564255</v>
+        <v>0.8082638236517281</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.1602236451798091</v>
+        <v>0.1463292159021457</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.4955386066880871</v>
+        <v>0.4846456195766934</v>
       </c>
     </row>
     <row r="48">
@@ -1689,22 +1693,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.5120214462160534</v>
+        <v>0.5278626431463447</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.5124391396896131</v>
+        <v>0.4768577283985285</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.784444134679152</v>
+        <v>1.754138931679895</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.343243827075674</v>
+        <v>2.292126114336051</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.046016347996021</v>
+        <v>1.024773190648652</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.290659810943854</v>
+        <v>1.298508690792248</v>
       </c>
     </row>
     <row r="49">
@@ -1718,19 +1722,19 @@
         <v>0.9206663448150989</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.9440572306430043</v>
+        <v>0.9440572306430047</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>0.3514991995455759</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>0.5969496560064174</v>
+        <v>0.5969496560064176</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3971445984877748</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.633165759941218</v>
+        <v>0.6331657599412177</v>
       </c>
     </row>
     <row r="50">
@@ -1741,22 +1745,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3251185697983985</v>
+        <v>-0.195621079953614</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2478900797659909</v>
+        <v>-0.2519171447735573</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.02588815377710497</v>
+        <v>0.04194015593971989</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2768587882989216</v>
+        <v>0.2611746488795981</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.09091547764016875</v>
+        <v>0.08472187198334312</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2841042441982655</v>
+        <v>0.2788686282539302</v>
       </c>
     </row>
     <row r="51">
@@ -1767,22 +1771,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>4.240762428655777</v>
+        <v>5.478454936634195</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>4.279336668101757</v>
+        <v>4.683098122380041</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.7944811029312184</v>
+        <v>0.7942116795100648</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.083634124264173</v>
+        <v>1.052111146913902</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.8315039481067505</v>
+        <v>0.8193042857743783</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.042886596341177</v>
+        <v>1.067091684941864</v>
       </c>
     </row>
     <row r="52">
